--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Nxph3</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.07940033333333334</v>
+      </c>
+      <c r="H2">
+        <v>0.238201</v>
+      </c>
+      <c r="I2">
+        <v>0.2424709127739492</v>
+      </c>
+      <c r="J2">
+        <v>0.3243800105402634</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.3340383333333333</v>
-      </c>
-      <c r="H2">
-        <v>1.002115</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.002858666666666667</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N2">
-        <v>0.008576</v>
+        <v>0.098942</v>
       </c>
       <c r="O2">
-        <v>0.002734612344944435</v>
+        <v>0.680931013599075</v>
       </c>
       <c r="P2">
-        <v>0.004026383705540645</v>
+        <v>0.7619715055833655</v>
       </c>
       <c r="Q2">
-        <v>0.0009549042488888888</v>
+        <v>0.002618675926888889</v>
       </c>
       <c r="R2">
-        <v>0.008594138239999998</v>
+        <v>0.023568083342</v>
       </c>
       <c r="S2">
-        <v>0.002734612344944435</v>
+        <v>0.1651059644034582</v>
       </c>
       <c r="T2">
-        <v>0.004026383705540645</v>
+        <v>0.2471683250125125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +581,185 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3340383333333333</v>
+        <v>0.07940033333333334</v>
       </c>
       <c r="H3">
-        <v>1.002115</v>
+        <v>0.238201</v>
       </c>
       <c r="I3">
+        <v>0.2424709127739492</v>
+      </c>
+      <c r="J3">
+        <v>0.3243800105402634</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.03298066666666667</v>
+        <v>0.015454</v>
       </c>
       <c r="N3">
-        <v>0.098942</v>
+        <v>0.030908</v>
       </c>
       <c r="O3">
-        <v>0.03154944200483818</v>
+        <v>0.319068986400925</v>
       </c>
       <c r="P3">
-        <v>0.04645271182294804</v>
+        <v>0.2380284944166346</v>
       </c>
       <c r="Q3">
-        <v>0.01101680692555555</v>
+        <v>0.001227052751333333</v>
       </c>
       <c r="R3">
-        <v>0.09915126232999999</v>
+        <v>0.007362316508</v>
       </c>
       <c r="S3">
-        <v>0.03154944200483818</v>
+        <v>0.07736494837049107</v>
       </c>
       <c r="T3">
-        <v>0.04645271182294804</v>
+        <v>0.07721168552775096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.248063</v>
+      </c>
+      <c r="H4">
+        <v>0.496126</v>
+      </c>
+      <c r="I4">
+        <v>0.7575290872260508</v>
+      </c>
+      <c r="J4">
+        <v>0.6756199894597367</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.3340383333333333</v>
-      </c>
-      <c r="H4">
-        <v>1.002115</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.003382666666666667</v>
+        <v>0.03298066666666667</v>
       </c>
       <c r="N4">
-        <v>0.010148</v>
+        <v>0.098942</v>
       </c>
       <c r="O4">
-        <v>0.003235872910039194</v>
+        <v>0.680931013599075</v>
       </c>
       <c r="P4">
-        <v>0.004764428853058123</v>
+        <v>0.7619715055833655</v>
       </c>
       <c r="Q4">
-        <v>0.001129940335555555</v>
+        <v>0.008181283115333332</v>
       </c>
       <c r="R4">
-        <v>0.01016946302</v>
+        <v>0.049087698692</v>
       </c>
       <c r="S4">
-        <v>0.003235872910039194</v>
+        <v>0.5158250491956169</v>
       </c>
       <c r="T4">
-        <v>0.004764428853058123</v>
+        <v>0.5148031805708531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.3340383333333333</v>
+        <v>0.248063</v>
       </c>
       <c r="H5">
-        <v>1.002115</v>
+        <v>0.496126</v>
       </c>
       <c r="I5">
+        <v>0.7575290872260508</v>
+      </c>
+      <c r="J5">
+        <v>0.6756199894597367</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.0061425</v>
+        <v>0.015454</v>
       </c>
       <c r="N5">
-        <v>2.012285</v>
+        <v>0.030908</v>
       </c>
       <c r="O5">
-        <v>0.9624800727401781</v>
+        <v>0.319068986400925</v>
       </c>
       <c r="P5">
-        <v>0.9447564756184532</v>
+        <v>0.2380284944166346</v>
       </c>
       <c r="Q5">
-        <v>0.3360901637958332</v>
+        <v>0.003833565602</v>
       </c>
       <c r="R5">
-        <v>2.016540982775</v>
+        <v>0.015334262408</v>
       </c>
       <c r="S5">
-        <v>0.9624800727401781</v>
+        <v>0.2417040380304339</v>
       </c>
       <c r="T5">
-        <v>0.9447564756184532</v>
+        <v>0.1608168088888837</v>
       </c>
     </row>
   </sheetData>
